--- a/calcs/WeightedVoting.xlsx
+++ b/calcs/WeightedVoting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/Governance/calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D6CC21-4EDF-3A4B-9477-FEABACD0207A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBFDEFB-D26A-634A-BBD1-53CB43543AF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27140" windowHeight="16540" xr2:uid="{56AD237F-EF40-9C48-8C44-9DB8CB7958B9}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Accounts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>OGTokens</t>
   </si>
@@ -61,6 +58,30 @@
   </si>
   <si>
     <t>Uncommitted tokens</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Not Voted</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Colours</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -69,9 +90,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.000000000%"/>
+    <numFmt numFmtId="164" formatCode="0.000000000%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +111,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,15 +173,31 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -464,687 +516,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E80E6C6-F9BF-FB44-8F05-E5642E886A08}">
-  <dimension ref="B2:J26"/>
+  <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="K4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
         <v>30</v>
       </c>
-      <c r="G5" s="1">
-        <f>E5*F5/365</f>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G24" si="0">E5*F5/365</f>
         <v>8.2191780821917817</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>H5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <f>(1-H5)*G5</f>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <f>IF(H5="y",G5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f>IF(H5="n",G5,0)</f>
         <v>8.2191780821917817</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="K5" s="7">
+        <f>IF(AND(H5&lt;&gt;"n",H5&lt;&gt;"y"),G5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
         <v>60</v>
       </c>
-      <c r="G6" s="1">
-        <f>E6*F6/365</f>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
         <v>16.438356164383563</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6:I24" si="0">H6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" ref="J6:J24" si="1">(1-H6)*G6</f>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I24" si="1">IF(H6="y",G6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6:K24" si="2">IF(H6="n",G6,0)</f>
         <v>16.438356164383563</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="K6" s="7">
+        <f t="shared" ref="K6:K24" si="3">IF(AND(H6&lt;&gt;"n",H6&lt;&gt;"y"),G6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>100</v>
+      </c>
+      <c r="F7" s="6">
         <v>90</v>
       </c>
-      <c r="G7" s="1">
-        <f>E7*F7/365</f>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
         <v>24.657534246575342</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="1"/>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="2"/>
         <v>24.657534246575342</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="K7" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
         <v>120</v>
       </c>
-      <c r="G8" s="1">
-        <f>E8*F8/365</f>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
         <v>32.876712328767127</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
         <v>32.876712328767127</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="K8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6">
         <v>150</v>
       </c>
-      <c r="G9" s="1">
-        <f>E9*F9/365</f>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
         <v>41.095890410958901</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
         <v>41.095890410958901</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="K9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
         <v>182.5</v>
       </c>
-      <c r="G10" s="1">
-        <f>E10*F10/365</f>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="1"/>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:13">
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
         <v>182.5</v>
       </c>
-      <c r="G11" s="1">
-        <f>E11*F11/365</f>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="1"/>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:13">
       <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6">
         <v>182.5</v>
       </c>
-      <c r="G12" s="1">
-        <f>E12*F12/365</f>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="1"/>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:13">
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
+      <c r="F13" s="6">
         <v>182.5</v>
       </c>
-      <c r="G13" s="1">
-        <f>E13*F13/365</f>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:13">
       <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6">
         <v>182.5</v>
       </c>
-      <c r="G14" s="1">
-        <f>E14*F14/365</f>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:13">
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>100</v>
+      </c>
+      <c r="F15" s="6">
         <v>365</v>
       </c>
-      <c r="G15" s="1">
-        <f>E15*F15/365</f>
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>100</v>
+      </c>
+      <c r="F16" s="6">
         <v>365</v>
       </c>
-      <c r="G16" s="1">
-        <f>E16*F16/365</f>
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="C17">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-      <c r="F17">
+      <c r="D17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="6">
         <v>365</v>
       </c>
-      <c r="G17" s="1">
-        <f>E17*F17/365</f>
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="C18">
         <v>13</v>
       </c>
-      <c r="D18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6">
         <f>365*2</f>
         <v>730</v>
       </c>
-      <c r="G18" s="1">
-        <f>E18*F18/365</f>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="J18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="C19">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ref="F19:F20" si="2">365*2</f>
+      <c r="D19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F20" si="4">365*2</f>
         <v>730</v>
       </c>
-      <c r="G19" s="1">
-        <f>E19*F19/365</f>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="0"/>
+      <c r="H19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="J19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
+      <c r="D20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="4"/>
         <v>730</v>
       </c>
-      <c r="G20" s="1">
-        <f>E20*F20/365</f>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="C21">
         <v>16</v>
       </c>
-      <c r="D21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>100</v>
-      </c>
-      <c r="F21">
+      <c r="D21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="6">
         <f>365*3</f>
         <v>1095</v>
       </c>
-      <c r="G21" s="1">
-        <f>E21*F21/365</f>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="0"/>
+      <c r="H21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="J21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="C22">
         <v>17</v>
       </c>
-      <c r="D22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22:F23" si="3">365*3</f>
+      <c r="D22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="5">365*3</f>
         <v>1095</v>
       </c>
-      <c r="G22" s="1">
-        <f>E22*F22/365</f>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="0"/>
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="J22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="C23">
         <v>18</v>
       </c>
-      <c r="D23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
+      <c r="D23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>100</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="5"/>
         <v>1095</v>
       </c>
-      <c r="G23" s="1">
-        <f>E23*F23/365</f>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="J23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>19</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>100000</v>
       </c>
-      <c r="E24" s="1">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <f>E24*F24/365</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="E24" s="5">
+        <v>100</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8">
         <f>SUM(D5:D24)</f>
         <v>119000</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="8">
         <f>SUM(E5:E24)</f>
         <v>2000</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4">
+      <c r="F25" s="9"/>
+      <c r="G25" s="8">
         <f>SUM(G5:G24)</f>
         <v>2173.2876712328766</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="4">
+      <c r="H25" s="10"/>
+      <c r="I25" s="8">
         <f>SUM(I5:I24)</f>
         <v>1800</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="8">
         <f>SUM(J5:J24)</f>
-        <v>373.28767123287673</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="E26" s="3">
+        <v>123.28767123287672</v>
+      </c>
+      <c r="K25" s="8">
+        <f>SUM(K5:K24)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="E26" s="11">
         <f>E25/D25</f>
         <v>1.680672268907563E-2</v>
       </c>
-      <c r="I26" s="5">
-        <f>I25/G25</f>
+      <c r="I26" s="12">
+        <f>I25/$G25</f>
         <v>0.82823826032146242</v>
       </c>
-      <c r="J26" s="5">
-        <f>J25/G25</f>
-        <v>0.17176173967853767</v>
+      <c r="J26" s="12">
+        <f t="shared" ref="J26:K26" si="6">J25/$G25</f>
+        <v>5.6728647967223454E-2</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="6"/>
+        <v>0.11503309171131422</v>
       </c>
     </row>
   </sheetData>

--- a/calcs/WeightedVoting.xlsx
+++ b/calcs/WeightedVoting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/Governance/calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBFDEFB-D26A-634A-BBD1-53CB43543AF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A760942-74EE-5C4C-B5C0-23DC536C9F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27140" windowHeight="16540" xr2:uid="{56AD237F-EF40-9C48-8C44-9DB8CB7958B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>OGTokens</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>Minimum committed</t>
+  </si>
+  <si>
+    <t>OGTokens committed</t>
+  </si>
+  <si>
+    <t>Committed average term, years</t>
+  </si>
+  <si>
+    <t>Supported %</t>
+  </si>
+  <si>
+    <t>Minimum committed average term, years</t>
+  </si>
+  <si>
+    <t>Support level</t>
+  </si>
+  <si>
+    <t>Vote passed</t>
   </si>
 </sst>
 </file>
@@ -173,7 +194,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +221,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -516,16 +539,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E80E6C6-F9BF-FB44-8F05-E5642E886A08}">
-  <dimension ref="B2:M26"/>
+  <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -536,49 +560,107 @@
     <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+    </row>
+    <row r="3" spans="2:11">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G22" si="0">E3*F3/365</f>
+        <v>8.2191780821917817</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7">
+        <f>IF(H3="y",G3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f>IF(H3="n",G3,0)</f>
+        <v>8.2191780821917817</v>
+      </c>
+      <c r="K3" s="7">
+        <f>IF(AND(H3&lt;&gt;"n",H3&lt;&gt;"y"),G3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>16.438356164383563</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I22" si="1">IF(H4="y",G4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J22" si="2">IF(H4="n",G4,0)</f>
+        <v>16.438356164383563</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K22" si="3">IF(AND(H4&lt;&gt;"n",H4&lt;&gt;"y"),G4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5">
         <v>1000</v>
@@ -587,34 +669,31 @@
         <v>100</v>
       </c>
       <c r="F5" s="6">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G24" si="0">E5*F5/365</f>
-        <v>8.2191780821917817</v>
+        <f t="shared" si="0"/>
+        <v>24.657534246575342</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <f>IF(H5="y",G5,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <f>IF(H5="n",G5,0)</f>
-        <v>8.2191780821917817</v>
+        <f t="shared" si="2"/>
+        <v>24.657534246575342</v>
       </c>
       <c r="K5" s="7">
-        <f>IF(AND(H5&lt;&gt;"n",H5&lt;&gt;"y"),G5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5">
         <v>1000</v>
@@ -623,34 +702,31 @@
         <v>100</v>
       </c>
       <c r="F6" s="6">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>16.438356164383563</v>
+        <v>32.876712328767127</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" ref="I6:I24" si="1">IF(H6="y",G6,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6:K24" si="2">IF(H6="n",G6,0)</f>
-        <v>16.438356164383563</v>
+        <f t="shared" si="2"/>
+        <v>32.876712328767127</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6:K24" si="3">IF(AND(H6&lt;&gt;"n",H6&lt;&gt;"y"),G6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5">
         <v>1000</v>
@@ -659,11 +735,11 @@
         <v>100</v>
       </c>
       <c r="F7" s="6">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>24.657534246575342</v>
+        <v>41.095890410958901</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
@@ -674,16 +750,16 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
-        <v>24.657534246575342</v>
+        <v>41.095890410958901</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:11">
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>1000</v>
@@ -692,14 +768,14 @@
         <v>100</v>
       </c>
       <c r="F8" s="6">
-        <v>120</v>
+        <v>182.5</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>32.876712328767127</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="1"/>
@@ -707,16 +783,16 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>32.876712328767127</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
@@ -725,14 +801,14 @@
         <v>100</v>
       </c>
       <c r="F9" s="6">
-        <v>150</v>
+        <v>182.5</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>41.095890410958901</v>
+        <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
@@ -740,16 +816,16 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>41.095890410958901</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="C10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
@@ -780,9 +856,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:11">
       <c r="C11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
@@ -813,9 +889,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:11">
       <c r="C12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5">
         <v>1000</v>
@@ -846,9 +922,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:11">
       <c r="C13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5">
         <v>1000</v>
@@ -857,64 +933,64 @@
         <v>100</v>
       </c>
       <c r="F13" s="6">
-        <v>182.5</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6">
+        <v>365</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15">
         <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>100</v>
-      </c>
-      <c r="F14" s="6">
-        <v>182.5</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="C15">
-        <v>10</v>
       </c>
       <c r="D15" s="5">
         <v>1000</v>
@@ -945,9 +1021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:11">
       <c r="C16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5">
         <v>1000</v>
@@ -956,18 +1032,19 @@
         <v>100</v>
       </c>
       <c r="F16" s="6">
-        <v>365</v>
+        <f>365*2</f>
+        <v>730</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="2"/>
@@ -980,7 +1057,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="C17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5">
         <v>1000</v>
@@ -989,18 +1066,19 @@
         <v>100</v>
       </c>
       <c r="F17" s="6">
-        <v>365</v>
+        <f t="shared" ref="F17:F18" si="4">365*2</f>
+        <v>730</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="2"/>
@@ -1013,7 +1091,7 @@
     </row>
     <row r="18" spans="2:11">
       <c r="C18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5">
         <v>1000</v>
@@ -1022,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="F18" s="6">
-        <f>365*2</f>
+        <f t="shared" si="4"/>
         <v>730</v>
       </c>
       <c r="G18" s="7">
@@ -1047,7 +1125,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="C19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5">
         <v>1000</v>
@@ -1056,19 +1134,19 @@
         <v>100</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F20" si="4">365*2</f>
-        <v>730</v>
+        <f>365*3</f>
+        <v>1095</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="2"/>
@@ -1081,7 +1159,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="C20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="5">
         <v>1000</v>
@@ -1090,19 +1168,19 @@
         <v>100</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="4"/>
-        <v>730</v>
+        <f t="shared" ref="F20:F21" si="5">365*3</f>
+        <v>1095</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="2"/>
@@ -1115,7 +1193,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="C21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="5">
         <v>1000</v>
@@ -1124,7 +1202,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="6">
-        <f>365*3</f>
+        <f t="shared" si="5"/>
         <v>1095</v>
       </c>
       <c r="G21" s="7">
@@ -1148,29 +1226,29 @@
       </c>
     </row>
     <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
       <c r="C22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" s="5">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="E22" s="5">
         <v>100</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:F23" si="5">365*3</f>
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="2"/>
@@ -1182,121 +1260,139 @@
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="5">
-        <v>100</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8">
+        <f>SUM(D3:D22)</f>
+        <v>119000</v>
+      </c>
+      <c r="E23" s="8">
+        <f>SUM(E3:E22)</f>
+        <v>2000</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8">
+        <f>SUM(G3:G22)</f>
+        <v>2173.2876712328766</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8">
+        <f>SUM(I3:I22)</f>
+        <v>1800</v>
+      </c>
+      <c r="J23" s="8">
+        <f>SUM(J3:J22)</f>
+        <v>123.28767123287672</v>
+      </c>
+      <c r="K23" s="8">
+        <f>SUM(K3:K22)</f>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5">
-        <v>100000</v>
-      </c>
-      <c r="E24" s="5">
-        <v>100</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="8">
-        <f>SUM(D5:D24)</f>
-        <v>119000</v>
-      </c>
-      <c r="E25" s="8">
-        <f>SUM(E5:E24)</f>
-        <v>2000</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="8">
-        <f>SUM(G5:G24)</f>
-        <v>2173.2876712328766</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8">
-        <f>SUM(I5:I24)</f>
-        <v>1800</v>
-      </c>
-      <c r="J25" s="8">
-        <f>SUM(J5:J24)</f>
-        <v>123.28767123287672</v>
-      </c>
-      <c r="K25" s="8">
-        <f>SUM(K5:K24)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="E26" s="11">
-        <f>E25/D25</f>
+      <c r="E24" s="11">
+        <f>E23/D23</f>
         <v>1.680672268907563E-2</v>
       </c>
-      <c r="I26" s="12">
-        <f>I25/$G25</f>
+      <c r="I24" s="12">
+        <f>I23/$G23</f>
         <v>0.82823826032146242</v>
       </c>
-      <c r="J26" s="12">
-        <f t="shared" ref="J26:K26" si="6">J25/$G25</f>
+      <c r="J24" s="12">
+        <f t="shared" ref="J24:K24" si="6">J23/$G23</f>
         <v>5.6728647967223454E-2</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K24" s="12">
         <f t="shared" si="6"/>
         <v>0.11503309171131422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="17">
+        <f>E23/D23</f>
+        <v>1.680672268907563E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="13">
+        <f>G23/E23</f>
+        <v>1.0866438356164383</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="17">
+        <f>I23/G23</f>
+        <v>0.82823826032146242</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="J29" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f>IF(C26&lt;C30, "FAIL", "PASS")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f>IF(C27&lt;C31,"FAIL","PASS")</f>
+        <v>PASS</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f>IF(C28&lt;C32,"FAIL","PASS")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="13" t="str">
+        <f>IF(AND(D30="PASS",AND(D31="PASS",D32="PASS")),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/calcs/WeightedVoting.xlsx
+++ b/calcs/WeightedVoting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/Governance/calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A760942-74EE-5C4C-B5C0-23DC536C9F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C60669-5BA8-6D4F-8B2D-E5D9A1CB99A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27140" windowHeight="16540" xr2:uid="{56AD237F-EF40-9C48-8C44-9DB8CB7958B9}"/>
   </bookViews>
@@ -152,12 +152,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -194,7 +200,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -217,12 +223,15 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -542,7 +551,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -557,38 +566,38 @@
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1313,7 +1322,7 @@
       <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <f>E23/D23</f>
         <v>1.680672268907563E-2</v>
       </c>
@@ -1331,30 +1340,32 @@
       <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <f>I23/G23</f>
         <v>0.82823826032146242</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>0.1</v>
       </c>
       <c r="D30" s="13" t="str">
         <f>IF(C26&lt;C30, "FAIL", "PASS")</f>
         <v>FAIL</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" t="s">
@@ -1367,23 +1378,26 @@
         <f>IF(C27&lt;C31,"FAIL","PASS")</f>
         <v>PASS</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="20" t="s">
         <v>16</v>
       </c>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>0.5</v>
       </c>
       <c r="D32" s="13" t="str">
         <f>IF(C28&lt;C32,"FAIL","PASS")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -1391,9 +1405,10 @@
         <f>IF(AND(D30="PASS",AND(D31="PASS",D32="PASS")),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="K33" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
